--- a/tut05/output/0501EE05.xlsx
+++ b/tut05/output/0501EE05.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.326530612244898</v>
+        <v>9.33</v>
       </c>
       <c r="C6" t="n">
-        <v>8.113636363636363</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.043478260869565</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.826086956521738</v>
+        <v>8.83</v>
       </c>
       <c r="F6" t="n">
-        <v>8.846153846153847</v>
+        <v>8.85</v>
       </c>
       <c r="G6" t="n">
-        <v>7.625</v>
+        <v>7.62</v>
       </c>
       <c r="H6" t="n">
-        <v>7.069767441860465</v>
+        <v>7.07</v>
       </c>
       <c r="I6" t="n">
-        <v>6.473684210526316</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.326530612244898</v>
+        <v>9.33</v>
       </c>
       <c r="C8" t="n">
-        <v>8.75268817204301</v>
+        <v>8.75</v>
       </c>
       <c r="D8" t="n">
-        <v>8.848920863309353</v>
+        <v>8.85</v>
       </c>
       <c r="E8" t="n">
-        <v>8.843243243243244</v>
+        <v>8.84</v>
       </c>
       <c r="F8" t="n">
-        <v>8.84375</v>
+        <v>8.84</v>
       </c>
       <c r="G8" t="n">
-        <v>8.659090909090908</v>
+        <v>8.66</v>
       </c>
       <c r="H8" t="n">
-        <v>8.436482084690553</v>
+        <v>8.44</v>
       </c>
       <c r="I8" t="n">
-        <v>8.220289855072464</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
   </sheetData>
